--- a/data/3D_Data_Array_Processed.xlsx
+++ b/data/3D_Data_Array_Processed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Alcohol Intake</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Alcohol Intake</t>
+          <t>Food Intake</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -466,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Food Intake</t>
+          <t>Water Intake</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Water Intake</t>
+          <t>Body Weight</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -490,11 +490,6 @@
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Body Weight</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Body Weight</t>
         </is>
@@ -503,65 +498,60 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mouse #</t>
+          <t>Day 1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Day 2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Day 3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Day 1</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Day 2</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Day 3</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Day 1</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Day 2</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Day 3</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>Day 1</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>Day 2</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Day 3</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Day 1</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
-        <is>
-          <t>Day 2</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
         <is>
           <t>Day 3</t>
         </is>
@@ -569,575 +559,533 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0.3298</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3298</v>
+        <v>0.3293</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3293</v>
+        <v>0.3498</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3498</v>
+        <v>0.3136</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3136</v>
+        <v>0.316</v>
       </c>
       <c r="F3" t="n">
-        <v>0.316</v>
+        <v>0.318</v>
       </c>
       <c r="G3" t="n">
-        <v>0.318</v>
+        <v>0.3821</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3821</v>
+        <v>0.382</v>
       </c>
       <c r="I3" t="n">
-        <v>0.382</v>
+        <v>0.4549</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4549</v>
+        <v>0.3125</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3125</v>
+        <v>0.3205</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3205</v>
-      </c>
-      <c r="M3" t="n">
         <v>0.376</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>0.3635</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3635</v>
+        <v>0.3518</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3518</v>
+        <v>0.3655</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3655</v>
+        <v>0.356</v>
       </c>
       <c r="E4" t="n">
-        <v>0.356</v>
+        <v>0.3553</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3553</v>
+        <v>0.3538</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3538</v>
+        <v>0.5159</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5159</v>
+        <v>0.4694</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4694</v>
+        <v>0.5169</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5169</v>
+        <v>0.4164</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4164</v>
+        <v>0.4214</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4214</v>
-      </c>
-      <c r="M4" t="n">
         <v>0.4737</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>0.1561</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1561</v>
+        <v>0.1554</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1554</v>
+        <v>0.1833</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1833</v>
+        <v>0.1487</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1487</v>
+        <v>0.1454</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1454</v>
+        <v>0.1489</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1489</v>
+        <v>0.5254</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5254</v>
+        <v>0.3311</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3311</v>
+        <v>0.3439</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3439</v>
+        <v>0.4339</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4339</v>
+        <v>0.3193</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3193</v>
-      </c>
-      <c r="M5" t="n">
         <v>0.3527</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>0.6303</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6303</v>
+        <v>0.6085</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6085</v>
+        <v>0.6118</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6118</v>
+        <v>0.6438</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6438</v>
+        <v>0.6408</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6408</v>
+        <v>0.6374</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6374</v>
+        <v>0.6123</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6123</v>
+        <v>0.4698</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4698</v>
+        <v>0.3635</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3635</v>
+        <v>0.5215</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5215</v>
+        <v>0.4791</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="M6" t="n">
         <v>0.4484</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>0.2005</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2005</v>
+        <v>0.1987</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1987</v>
+        <v>0.2314</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2314</v>
+        <v>0.178</v>
       </c>
       <c r="E7" t="n">
-        <v>0.178</v>
+        <v>0.185</v>
       </c>
       <c r="F7" t="n">
-        <v>0.185</v>
+        <v>0.189</v>
       </c>
       <c r="G7" t="n">
-        <v>0.189</v>
+        <v>0.3984</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3984</v>
+        <v>0.3429</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3429</v>
+        <v>0.4271</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4271</v>
+        <v>0.3109</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3109</v>
+        <v>0.3102</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3102</v>
-      </c>
-      <c r="M7" t="n">
         <v>0.3579</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>0.2531</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2531</v>
+        <v>0.2669</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2669</v>
+        <v>0.3091</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3091</v>
+        <v>0.2186</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2186</v>
+        <v>0.2294</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2294</v>
+        <v>0.2436</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2436</v>
+        <v>0.0833</v>
       </c>
       <c r="H8" t="n">
+        <v>0.1025</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.2416</v>
+      </c>
+      <c r="J8" t="n">
         <v>0.0833</v>
       </c>
-      <c r="I8" t="n">
-        <v>0.1025</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.2416</v>
-      </c>
       <c r="K8" t="n">
-        <v>0.0833</v>
+        <v>0.0857</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0857</v>
-      </c>
-      <c r="M8" t="n">
         <v>0.1561</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>0.7203000000000001</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7203000000000001</v>
+        <v>0.7171</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7171</v>
+        <v>0.7252</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7252</v>
+        <v>0.7309</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7309</v>
+        <v>0.7316</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7316</v>
+        <v>0.7275</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7275</v>
+        <v>0.3072</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3072</v>
+        <v>0.3502</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3502</v>
+        <v>0.4527</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4527</v>
+        <v>0.3249</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3249</v>
+        <v>0.3412</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3412</v>
-      </c>
-      <c r="M9" t="n">
         <v>0.3865</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>0.8021</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8021</v>
+        <v>0.7895</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7895</v>
+        <v>0.7906</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7906</v>
+        <v>0.8375</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8375</v>
+        <v>0.8322000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8322000000000001</v>
+        <v>0.8211000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8211000000000001</v>
+        <v>0.6838</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6838</v>
+        <v>0.4185</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4185</v>
+        <v>0.5082</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5082</v>
+        <v>0.6195000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6195000000000001</v>
+        <v>0.4587</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4587</v>
-      </c>
-      <c r="M10" t="n">
         <v>0.4944</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>0.3449</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3449</v>
+        <v>0.3346</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3346</v>
+        <v>0.3516</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3516</v>
+        <v>0.3564</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3564</v>
+        <v>0.3527</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3527</v>
+        <v>0.3502</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3502</v>
+        <v>0.5099</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5099</v>
+        <v>0.3785</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3785</v>
+        <v>0.3825</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3825</v>
+        <v>0.4705</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4705</v>
+        <v>0.4123</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4123</v>
-      </c>
-      <c r="M11" t="n">
         <v>0.4392</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10</v>
+        <v>0.3342</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3342</v>
+        <v>0.3281</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3281</v>
+        <v>0.3478</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3478</v>
+        <v>0.3128</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3128</v>
+        <v>0.3144</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3144</v>
+        <v>0.3169</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3169</v>
+        <v>0.4174</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4174</v>
+        <v>0.4302</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4302</v>
+        <v>0.4636</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4636</v>
+        <v>0.3179</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3179</v>
+        <v>0.3485</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3485</v>
-      </c>
-      <c r="M12" t="n">
         <v>0.3841</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11</v>
+        <v>0.5215</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5215</v>
+        <v>0.4938</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4938</v>
+        <v>0.498</v>
       </c>
       <c r="D13" t="n">
-        <v>0.498</v>
+        <v>0.5572</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5572</v>
+        <v>0.5457</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5457</v>
+        <v>0.535</v>
       </c>
       <c r="G13" t="n">
-        <v>0.535</v>
+        <v>0.6743</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6743</v>
+        <v>0.5563</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5563</v>
+        <v>0.4238</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4238</v>
+        <v>0.6306</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6306</v>
+        <v>0.6032</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6032</v>
-      </c>
-      <c r="M13" t="n">
         <v>0.5517</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12</v>
+        <v>0.3726</v>
       </c>
       <c r="B14" t="n">
-        <v>0.3726</v>
+        <v>0.3653</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3653</v>
+        <v>0.3803</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3803</v>
+        <v>0.3685</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3685</v>
+        <v>0.3679</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3679</v>
+        <v>0.366</v>
       </c>
       <c r="G14" t="n">
-        <v>0.366</v>
+        <v>0.5056</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5056</v>
+        <v>0.4107</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4107</v>
+        <v>0.4744</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4744</v>
+        <v>0.4198</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4198</v>
+        <v>0.3814</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3814</v>
-      </c>
-      <c r="M14" t="n">
         <v>0.4378</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>13</v>
+        <v>0.3649</v>
       </c>
       <c r="B15" t="n">
-        <v>0.3649</v>
+        <v>0.3672</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3672</v>
+        <v>0.3894</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3894</v>
+        <v>0.3404</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3404</v>
+        <v>0.3469</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3469</v>
+        <v>0.3525</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3525</v>
+        <v>0.3765</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3765</v>
+        <v>0.3268</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3268</v>
+        <v>0.4135</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4135</v>
+        <v>0.2825</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2825</v>
+        <v>0.2619</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2619</v>
-      </c>
-      <c r="M15" t="n">
         <v>0.3248</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14</v>
+        <v>0.6431</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6431</v>
+        <v>0.6435</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6435</v>
+        <v>0.6586</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6586</v>
+        <v>0.6333</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6333</v>
+        <v>0.6412</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6412</v>
+        <v>0.6467000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6467000000000001</v>
+        <v>0.4169</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4169</v>
+        <v>0.2498</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2498</v>
+        <v>0.3537</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3537</v>
+        <v>0.3344</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3344</v>
+        <v>0.2381</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2381</v>
-      </c>
-      <c r="M16" t="n">
         <v>0.3026</v>
       </c>
     </row>
